--- a/ДанныеПоСетям/Кашино/matrNeigh.xlsx
+++ b/ДанныеПоСетям/Кашино/matrNeigh.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CM91"/>
+  <dimension ref="A1:CO93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,6 +637,12 @@
       <c r="CM1" s="1" t="n">
         <v>89</v>
       </c>
+      <c r="CN1" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -910,6 +916,12 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1187,6 +1199,12 @@
       <c r="CM3" t="n">
         <v>0</v>
       </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1462,6 +1480,12 @@
       <c r="CM4" t="n">
         <v>0</v>
       </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1737,6 +1761,12 @@
       <c r="CM5" t="n">
         <v>0</v>
       </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2012,6 +2042,12 @@
       <c r="CM6" t="n">
         <v>0</v>
       </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2287,6 +2323,12 @@
       <c r="CM7" t="n">
         <v>0</v>
       </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2562,6 +2604,12 @@
       <c r="CM8" t="n">
         <v>0</v>
       </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2837,6 +2885,12 @@
       <c r="CM9" t="n">
         <v>0</v>
       </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3112,6 +3166,12 @@
       <c r="CM10" t="n">
         <v>0</v>
       </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3387,6 +3447,12 @@
       <c r="CM11" t="n">
         <v>0</v>
       </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -3662,6 +3728,12 @@
       <c r="CM12" t="n">
         <v>0</v>
       </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3937,6 +4009,12 @@
       <c r="CM13" t="n">
         <v>0</v>
       </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -4212,6 +4290,12 @@
       <c r="CM14" t="n">
         <v>0</v>
       </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -4487,6 +4571,12 @@
       <c r="CM15" t="n">
         <v>0</v>
       </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -4762,6 +4852,12 @@
       <c r="CM16" t="n">
         <v>0</v>
       </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -5037,6 +5133,12 @@
       <c r="CM17" t="n">
         <v>0</v>
       </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -5312,6 +5414,12 @@
       <c r="CM18" t="n">
         <v>0</v>
       </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -5587,6 +5695,12 @@
       <c r="CM19" t="n">
         <v>0</v>
       </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -5862,6 +5976,12 @@
       <c r="CM20" t="n">
         <v>0</v>
       </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -6137,6 +6257,12 @@
       <c r="CM21" t="n">
         <v>0</v>
       </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -6412,6 +6538,12 @@
       <c r="CM22" t="n">
         <v>0</v>
       </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -6687,6 +6819,12 @@
       <c r="CM23" t="n">
         <v>0</v>
       </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -6962,6 +7100,12 @@
       <c r="CM24" t="n">
         <v>0</v>
       </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -7237,6 +7381,12 @@
       <c r="CM25" t="n">
         <v>0</v>
       </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -7512,6 +7662,12 @@
       <c r="CM26" t="n">
         <v>0</v>
       </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -7787,6 +7943,12 @@
       <c r="CM27" t="n">
         <v>0</v>
       </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -8062,6 +8224,12 @@
       <c r="CM28" t="n">
         <v>0</v>
       </c>
+      <c r="CN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -8337,6 +8505,12 @@
       <c r="CM29" t="n">
         <v>0</v>
       </c>
+      <c r="CN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -8612,6 +8786,12 @@
       <c r="CM30" t="n">
         <v>0</v>
       </c>
+      <c r="CN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -8887,6 +9067,12 @@
       <c r="CM31" t="n">
         <v>0</v>
       </c>
+      <c r="CN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -9162,6 +9348,12 @@
       <c r="CM32" t="n">
         <v>0</v>
       </c>
+      <c r="CN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -9437,6 +9629,12 @@
       <c r="CM33" t="n">
         <v>0</v>
       </c>
+      <c r="CN33" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -9712,6 +9910,12 @@
       <c r="CM34" t="n">
         <v>0</v>
       </c>
+      <c r="CN34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -9987,6 +10191,12 @@
       <c r="CM35" t="n">
         <v>0</v>
       </c>
+      <c r="CN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -10262,6 +10472,12 @@
       <c r="CM36" t="n">
         <v>0</v>
       </c>
+      <c r="CN36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -10537,6 +10753,12 @@
       <c r="CM37" t="n">
         <v>0</v>
       </c>
+      <c r="CN37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -10812,6 +11034,12 @@
       <c r="CM38" t="n">
         <v>0</v>
       </c>
+      <c r="CN38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -11087,6 +11315,12 @@
       <c r="CM39" t="n">
         <v>0</v>
       </c>
+      <c r="CN39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -11362,6 +11596,12 @@
       <c r="CM40" t="n">
         <v>0</v>
       </c>
+      <c r="CN40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -11637,6 +11877,12 @@
       <c r="CM41" t="n">
         <v>0</v>
       </c>
+      <c r="CN41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -11778,10 +12024,10 @@
         <v>0</v>
       </c>
       <c r="AU42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -11910,6 +12156,12 @@
         <v>0</v>
       </c>
       <c r="CM42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12053,17 +12305,17 @@
         <v>0</v>
       </c>
       <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
         <v>1</v>
       </c>
-      <c r="AV43" t="n">
+      <c r="AX43" t="n">
         <v>1</v>
       </c>
-      <c r="AW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>0</v>
-      </c>
       <c r="AY43" t="n">
         <v>0</v>
       </c>
@@ -12185,6 +12437,12 @@
         <v>0</v>
       </c>
       <c r="CM43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12462,6 +12720,12 @@
       <c r="CM44" t="n">
         <v>0</v>
       </c>
+      <c r="CN44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -12737,6 +13001,12 @@
       <c r="CM45" t="n">
         <v>0</v>
       </c>
+      <c r="CN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -12884,17 +13154,17 @@
         <v>0</v>
       </c>
       <c r="AW46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY46" t="n">
         <v>1</v>
       </c>
-      <c r="AX46" t="n">
+      <c r="AZ46" t="n">
         <v>1</v>
       </c>
-      <c r="AY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>0</v>
-      </c>
       <c r="BA46" t="n">
         <v>0</v>
       </c>
@@ -13010,6 +13280,12 @@
         <v>0</v>
       </c>
       <c r="CM46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13168,10 +13444,10 @@
         <v>0</v>
       </c>
       <c r="AZ47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" t="n">
         <v>0</v>
@@ -13285,6 +13561,12 @@
         <v>0</v>
       </c>
       <c r="CM47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN47" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13440,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="AY48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ48" t="n">
         <v>0</v>
@@ -13449,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="BB48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC48" t="n">
         <v>0</v>
@@ -13560,6 +13842,12 @@
         <v>0</v>
       </c>
       <c r="CM48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13724,10 +14012,10 @@
         <v>0</v>
       </c>
       <c r="BB49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD49" t="n">
         <v>0</v>
@@ -13835,6 +14123,12 @@
         <v>0</v>
       </c>
       <c r="CM49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13996,13 +14290,13 @@
         <v>0</v>
       </c>
       <c r="BA50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB50" t="n">
         <v>0</v>
       </c>
       <c r="BC50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD50" t="n">
         <v>1</v>
@@ -14110,6 +14404,12 @@
         <v>0</v>
       </c>
       <c r="CM50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14387,6 +14687,12 @@
       <c r="CM51" t="n">
         <v>0</v>
       </c>
+      <c r="CN51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -14558,10 +14864,10 @@
         <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG52" t="n">
         <v>0</v>
@@ -14660,6 +14966,12 @@
         <v>0</v>
       </c>
       <c r="CM52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14937,6 +15249,12 @@
       <c r="CM53" t="n">
         <v>0</v>
       </c>
+      <c r="CN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -15108,13 +15426,13 @@
         <v>0</v>
       </c>
       <c r="BE54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH54" t="n">
         <v>0</v>
@@ -15210,6 +15528,12 @@
         <v>0</v>
       </c>
       <c r="CM54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15487,6 +15811,12 @@
       <c r="CM55" t="n">
         <v>0</v>
       </c>
+      <c r="CN55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -15664,7 +15994,7 @@
         <v>0</v>
       </c>
       <c r="BG56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56" t="n">
         <v>1</v>
@@ -15760,6 +16090,12 @@
         <v>0</v>
       </c>
       <c r="CM56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16037,6 +16373,12 @@
       <c r="CM57" t="n">
         <v>0</v>
       </c>
+      <c r="CN57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -16223,10 +16565,10 @@
         <v>0</v>
       </c>
       <c r="BJ58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL58" t="n">
         <v>0</v>
@@ -16310,6 +16652,12 @@
         <v>0</v>
       </c>
       <c r="CM58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16498,13 +16846,13 @@
         <v>0</v>
       </c>
       <c r="BJ59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM59" t="n">
         <v>0</v>
@@ -16585,6 +16933,12 @@
         <v>0</v>
       </c>
       <c r="CM59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16862,6 +17216,12 @@
       <c r="CM60" t="n">
         <v>0</v>
       </c>
+      <c r="CN60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -17054,13 +17414,13 @@
         <v>0</v>
       </c>
       <c r="BL61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO61" t="n">
         <v>0</v>
@@ -17135,6 +17495,12 @@
         <v>0</v>
       </c>
       <c r="CM61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17412,6 +17778,12 @@
       <c r="CM62" t="n">
         <v>0</v>
       </c>
+      <c r="CN62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -17687,6 +18059,12 @@
       <c r="CM63" t="n">
         <v>0</v>
       </c>
+      <c r="CN63" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -17882,10 +18260,10 @@
         <v>0</v>
       </c>
       <c r="BM64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" t="n">
         <v>0</v>
@@ -17960,6 +18338,12 @@
         <v>0</v>
       </c>
       <c r="CM64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18237,6 +18621,12 @@
       <c r="CM65" t="n">
         <v>0</v>
       </c>
+      <c r="CN65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -18512,6 +18902,12 @@
       <c r="CM66" t="n">
         <v>0</v>
       </c>
+      <c r="CN66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -18719,10 +19115,10 @@
         <v>0</v>
       </c>
       <c r="BQ67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS67" t="n">
         <v>0</v>
@@ -18785,6 +19181,12 @@
         <v>0</v>
       </c>
       <c r="CM67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18994,16 +19396,16 @@
         <v>0</v>
       </c>
       <c r="BQ68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BR68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BS68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU68" t="n">
         <v>0</v>
@@ -19060,6 +19462,12 @@
         <v>0</v>
       </c>
       <c r="CM68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19275,10 +19683,10 @@
         <v>0</v>
       </c>
       <c r="BS69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU69" t="n">
         <v>0</v>
@@ -19335,6 +19743,12 @@
         <v>0</v>
       </c>
       <c r="CM69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19562,7 +19976,7 @@
         <v>1</v>
       </c>
       <c r="BW70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX70" t="n">
         <v>0</v>
@@ -19610,6 +20024,12 @@
         <v>0</v>
       </c>
       <c r="CM70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19887,6 +20307,12 @@
       <c r="CM71" t="n">
         <v>0</v>
       </c>
+      <c r="CN71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -20112,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="BW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX72" t="n">
         <v>1</v>
@@ -20160,6 +20586,12 @@
         <v>0</v>
       </c>
       <c r="CM72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20437,6 +20869,12 @@
       <c r="CM73" t="n">
         <v>0</v>
       </c>
+      <c r="CN73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -20671,10 +21109,10 @@
         <v>0</v>
       </c>
       <c r="BZ74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB74" t="n">
         <v>0</v>
@@ -20710,6 +21148,12 @@
         <v>0</v>
       </c>
       <c r="CM74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20946,10 +21390,10 @@
         <v>0</v>
       </c>
       <c r="BZ75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB75" t="n">
         <v>0</v>
@@ -20985,6 +21429,12 @@
         <v>0</v>
       </c>
       <c r="CM75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21262,6 +21712,12 @@
       <c r="CM76" t="n">
         <v>0</v>
       </c>
+      <c r="CN76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -21537,6 +21993,12 @@
       <c r="CM77" t="n">
         <v>0</v>
       </c>
+      <c r="CN77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -21812,6 +22274,12 @@
       <c r="CM78" t="n">
         <v>0</v>
       </c>
+      <c r="CN78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -22058,10 +22526,10 @@
         <v>0</v>
       </c>
       <c r="CD79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF79" t="n">
         <v>0</v>
@@ -22085,6 +22553,12 @@
         <v>0</v>
       </c>
       <c r="CM79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN79" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22362,6 +22836,12 @@
       <c r="CM80" t="n">
         <v>0</v>
       </c>
+      <c r="CN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -22608,10 +23088,10 @@
         <v>0</v>
       </c>
       <c r="CD81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF81" t="n">
         <v>0</v>
@@ -22635,6 +23115,12 @@
         <v>0</v>
       </c>
       <c r="CM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22889,10 +23375,10 @@
         <v>0</v>
       </c>
       <c r="CF82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH82" t="n">
         <v>0</v>
@@ -22910,6 +23396,12 @@
         <v>0</v>
       </c>
       <c r="CM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23164,16 +23656,16 @@
         <v>0</v>
       </c>
       <c r="CF83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ83" t="n">
         <v>0</v>
@@ -23185,6 +23677,12 @@
         <v>0</v>
       </c>
       <c r="CM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23445,10 +23943,10 @@
         <v>0</v>
       </c>
       <c r="CH84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ84" t="n">
         <v>0</v>
@@ -23460,6 +23958,12 @@
         <v>0</v>
       </c>
       <c r="CM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23726,15 +24230,21 @@
         <v>0</v>
       </c>
       <c r="CJ85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL85" t="n">
         <v>0</v>
       </c>
       <c r="CM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24012,6 +24522,12 @@
       <c r="CM86" t="n">
         <v>0</v>
       </c>
+      <c r="CN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -24276,15 +24792,21 @@
         <v>0</v>
       </c>
       <c r="CJ87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL87" t="n">
         <v>0</v>
       </c>
       <c r="CM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24562,6 +25084,12 @@
       <c r="CM88" t="n">
         <v>0</v>
       </c>
+      <c r="CN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -24837,6 +25365,12 @@
       <c r="CM89" t="n">
         <v>1</v>
       </c>
+      <c r="CN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -25112,6 +25646,12 @@
       <c r="CM90" t="n">
         <v>0</v>
       </c>
+      <c r="CN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -25385,6 +25925,574 @@
         <v>0</v>
       </c>
       <c r="CM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN91" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO93" t="n">
         <v>0</v>
       </c>
     </row>
